--- a/biology/Botanique/Hôtel_Simon_(Nancy)/Hôtel_Simon_(Nancy).xlsx
+++ b/biology/Botanique/Hôtel_Simon_(Nancy)/Hôtel_Simon_(Nancy).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_Simon_(Nancy)</t>
+          <t>Hôtel_Simon_(Nancy)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hôtel Simon est un hôtel particulier situé dans la ville de Nancy en Meurthe-et-Moselle.
 Construit entre 1870 et 1873, la construction de l’hôtel particulier a débuté avec l'architecte Alexandre-Charles Melin puis s'est terminée avec l'architecte Albert Cuny.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_Simon_(Nancy)</t>
+          <t>Hôtel_Simon_(Nancy)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment est situé 39 rue de la Ravinelle à Nancy.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_Simon_(Nancy)</t>
+          <t>Hôtel_Simon_(Nancy)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,13 +558,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hôtel Simon est un hôtel particulier représentatif des demeures bourgeoises construites à Nancy dans la seconde moitié du XIXe siècle. L’intégrité de l’ensemble architectural composé de la maison, de son ornementation intérieure ainsi que du parc est frappante.  L’hôtel témoigne du goût d’une époque à l'aube de la période Art Nouveau. Mr Maure a demandé à l’architecte Alexandre-Charles Melin de lui construire son hôtel particulier. La construction a débuté entre 1870 et 1873 avant d’être arrêtée par l’architecte pour des raisons de santé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôtel Simon est un hôtel particulier représentatif des demeures bourgeoises construites à Nancy dans la seconde moitié du XIXe siècle. L’intégrité de l’ensemble architectural composé de la maison, de son ornementation intérieure ainsi que du parc est frappante.  L’hôtel témoigne du goût d’une époque à l'aube de la période Art Nouveau. Mr Maure a demandé à l’architecte Alexandre-Charles Melin de lui construire son hôtel particulier. La construction a débuté entre 1870 et 1873 avant d’être arrêtée par l’architecte pour des raisons de santé.
 Le gros œuvre à peine terminé, Léon Simon, négociant en graine rachète le bâtiment en l'état et confie le chantier à l'architecte Albert Cuny.
 À la suite de l’Annexion de la Moselle par l’Allemagne, Léon Simon, propriétaire de vastes pépinières et commerces de graines à Metz, s’installe dans cette demeure avec sa famille, tout en gardant la direction de l’entreprise messine.
 À son arrivée à Nancy,  Léon Simon s’associe à son gendre Émile Bouchotte, à J.B. Vilgrain et à M. Duhamel pour l’exploitation du moulin de Frouard.
-Botaniste reconnu pour ses recherches sur les arbres fruitiers et les roses, Léon Simon (1843-1913) est Président-fondateur avec Émile Gallé de la société centrale d'horticulture de Nancy. Émile Gallé créera une de ses œuvres majeures, la Coupe Simon ou Rose de France (aujourd’hui au musée de l'École de Nancy)[2]. 
+Botaniste reconnu pour ses recherches sur les arbres fruitiers et les roses, Léon Simon (1843-1913) est Président-fondateur avec Émile Gallé de la société centrale d'horticulture de Nancy. Émile Gallé créera une de ses œuvres majeures, la Coupe Simon ou Rose de France (aujourd’hui au musée de l'École de Nancy). 
 Dans les années 1920, l’hôtel appartient à la famille Ernest Vilgrain, propriétaire des grands moulins de Nancy.
 Des travaux d’aménagement intérieur importants sont réalisés : 
 rampe en fer forgé signé Jules Cayette
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4tel_Simon_(Nancy)</t>
+          <t>Hôtel_Simon_(Nancy)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôtel Simon présente une multitude de détails architecturaux remarquables : 
 l'entrée dont le sol est une mosaïque à tesselles de marbre au décor géométrique.
